--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/10/seed1/result_data_RandomForest.xlsx
@@ -499,10 +499,10 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.959300000000002</v>
+        <v>4.970700000000004</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.1513</v>
+        <v>-14.1287</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.87840000000001</v>
+        <v>-14.78700000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.183699999999998</v>
+        <v>6.189399999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.8298</v>
+        <v>-11.75539999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>9.031400000000007</v>
+        <v>9.132300000000008</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.92160000000001</v>
+        <v>-12.08100000000001</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
